--- a/src/main/webapp/word/阅心管理后台接口文档.xlsx
+++ b/src/main/webapp/word/阅心管理后台接口文档.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="154">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2682,6 +2682,148 @@
         <charset val="134"/>
       </rPr>
       <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>排序类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>播放量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最新上传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>/vedio/deleteVedios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedioIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3090,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" activeCellId="2" sqref="E69 E53 E53"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -3820,71 +3962,190 @@
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1">
       <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" ht="18" customHeight="1">
+      <c r="A70" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B70" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E70" s="10" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="18" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" customHeight="1">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18" customHeight="1">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="18" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" ht="18" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" ht="18" customHeight="1">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18" customHeight="1">
+      <c r="A80" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18" customHeight="1">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" ht="18" customHeight="1">
+      <c r="A82" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18" customHeight="1">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/word/阅心管理后台接口文档.xlsx
+++ b/src/main/webapp/word/阅心管理后台接口文档.xlsx
@@ -12,13 +12,14 @@
     <sheet name="getVedioCategory示例数据" sheetId="3" r:id="rId3"/>
     <sheet name="getVedio示例数据" sheetId="5" r:id="rId4"/>
     <sheet name="getVedios示例数据" sheetId="4" r:id="rId5"/>
+    <sheet name="getUsers示例数据" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="183">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2824,6 +2825,1012 @@
         <charset val="134"/>
       </rPr>
       <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/getUsers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"userList"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:[</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"phone"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"13296721646"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"userName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"appuser"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"job"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"realName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"昵称667"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"code"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"202CB962AC59075B964B07152D234B70"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"faceImgUrl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"addTime"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1481126400000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"phone"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"15123123123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"religiousBelief"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"userName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"15123123123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"job"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"工作"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"realName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"code"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"addTime"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1481622005000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"phone"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"15210364297"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"userName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"15210364297"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"addTime"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1481682495000</t>
+    </r>
+  </si>
+  <si>
+    <t>    ]</t>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"religiousBelief"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3232,10 +4239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4146,6 +5153,140 @@
       </c>
       <c r="E83" s="10" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="18" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" ht="18" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" ht="18" customHeight="1">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18" customHeight="1">
+      <c r="A91" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18" customHeight="1">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18" customHeight="1">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" ht="18" customHeight="1">
+      <c r="A94" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18" customHeight="1">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="18" customHeight="1">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4743,4 +5884,255 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A7" activeCellId="1" sqref="A1:A47 A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
+      <c r="A3" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15">
+      <c r="A11" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15">
+      <c r="A13" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15">
+      <c r="A15" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15">
+      <c r="A47" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/webapp/word/阅心管理后台接口文档.xlsx
+++ b/src/main/webapp/word/阅心管理后台接口文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="180">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2031,556 +2031,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioCategoryId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"isFree"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"money"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>15000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioName"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3AB54A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"第一个视频"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioImgUrl"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3AB54A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"aaaa"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioUrl"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3AB54A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"aaa"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioStatus"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"playAmount"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF1592A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"addTime"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1481597493000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"updateTime"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF1592A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"sysFlag"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioNotes"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3AB54A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"简介简介"</t>
-    </r>
-  </si>
-  <si>
     <t>    }</t>
   </si>
   <si>
@@ -3833,6 +3283,427 @@
       <t>,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioCategoryPId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioCategoryId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"isFree"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"money"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"二人热风阀"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioNotes"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"司法所范德萨范德萨发"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioImgUrl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"dd.jpg"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioUrl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"movie.mp4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"playAmount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4481,7 +4352,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
@@ -4720,7 +4591,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" customHeight="1">
@@ -4824,7 +4695,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" customHeight="1">
@@ -4970,7 +4841,7 @@
     <row r="68" spans="1:5" ht="18" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>5</v>
@@ -4979,7 +4850,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1">
@@ -5003,7 +4874,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" customHeight="1">
@@ -5056,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -5067,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -5104,16 +4975,16 @@
         <v>82</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1">
@@ -5137,7 +5008,7 @@
         <v>11</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" customHeight="1">
@@ -5160,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -5171,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -5256,7 +5127,7 @@
         <v>11</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="18" customHeight="1">
@@ -5277,7 +5148,7 @@
     <row r="96" spans="1:5" ht="18" customHeight="1">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>60</v>
@@ -5286,7 +5157,7 @@
         <v>11</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5458,7 +5329,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A18"/>
+      <selection activeCell="A3" activeCellId="1" sqref="A1:A15 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5480,82 +5351,77 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="8" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="8" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15">
       <c r="A6" s="8" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15">
       <c r="A7" s="8" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="8" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="8" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15">
       <c r="A10" s="8" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15">
       <c r="A11" s="8" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15">
       <c r="A12" s="8" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15">
       <c r="A14" s="8" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15">
       <c r="A15" s="8" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15">
-      <c r="A16" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" ht="15">
-      <c r="A17" s="8" t="s">
-        <v>144</v>
-      </c>
+      <c r="A17" s="8"/>
     </row>
     <row r="18" spans="1:1" ht="15">
-      <c r="A18" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5908,7 +5774,7 @@
     </row>
     <row r="3" spans="1:1" ht="15">
       <c r="A3" s="8" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15">
@@ -5923,32 +5789,32 @@
     </row>
     <row r="6" spans="1:1" ht="15">
       <c r="A6" s="8" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15">
       <c r="A7" s="8" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="8" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="8" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15">
       <c r="A10" s="8" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15">
       <c r="A11" s="8" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15">
@@ -5958,22 +5824,22 @@
     </row>
     <row r="13" spans="1:1" ht="15">
       <c r="A13" s="8" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15">
       <c r="A14" s="8" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15">
       <c r="A15" s="8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15">
       <c r="A16" s="8" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15">
@@ -5988,37 +5854,37 @@
     </row>
     <row r="19" spans="1:1" ht="15">
       <c r="A19" s="8" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15">
       <c r="A20" s="8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15">
       <c r="A21" s="8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15">
       <c r="A22" s="8" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15">
       <c r="A23" s="8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15">
       <c r="A24" s="8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15">
       <c r="A25" s="8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15">
@@ -6028,22 +5894,22 @@
     </row>
     <row r="27" spans="1:1" ht="15">
       <c r="A27" s="8" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15">
       <c r="A28" s="8" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15">
       <c r="A29" s="8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15">
       <c r="A30" s="8" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15">
@@ -6058,37 +5924,37 @@
     </row>
     <row r="33" spans="1:1" ht="15">
       <c r="A33" s="8" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15">
       <c r="A34" s="8" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15">
       <c r="A35" s="8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15">
       <c r="A36" s="8" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15">
       <c r="A37" s="8" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15">
       <c r="A38" s="8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15">
       <c r="A39" s="8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15">
@@ -6098,22 +5964,22 @@
     </row>
     <row r="41" spans="1:1" ht="15">
       <c r="A41" s="8" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15">
       <c r="A42" s="8" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15">
       <c r="A43" s="8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15">
       <c r="A44" s="8" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15">
@@ -6123,7 +5989,7 @@
     </row>
     <row r="46" spans="1:1" ht="15">
       <c r="A46" s="8" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15">

--- a/src/main/webapp/word/阅心管理后台接口文档.xlsx
+++ b/src/main/webapp/word/阅心管理后台接口文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="182">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3704,6 +3704,14 @@
       </rPr>
       <t>0</t>
     </r>
+  </si>
+  <si>
+    <t>登出路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4110,10 +4118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4133,357 +4141,350 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" ht="18" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="10" t="s">
+    <row r="22" spans="1:5" ht="18" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1">
+      <c r="A24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5" ht="18" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:5" ht="18" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>5</v>
@@ -4492,73 +4493,73 @@
         <v>11</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>98</v>
@@ -4567,266 +4568,266 @@
         <v>11</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" customHeight="1">
       <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="18" customHeight="1">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" ht="18" customHeight="1">
+      <c r="A44" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10" t="s">
+    <row r="45" spans="1:5" ht="18" customHeight="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:5" ht="18" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="18" customHeight="1">
-      <c r="A49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="18" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" ht="18" customHeight="1">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18" customHeight="1">
-      <c r="A52" s="10" t="s">
+    <row r="53" spans="1:5" ht="18" customHeight="1">
+      <c r="A53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B53" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D53" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-    </row>
     <row r="54" spans="1:5" ht="18" customHeight="1">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" ht="18" customHeight="1">
+      <c r="A55" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18" customHeight="1">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18" customHeight="1">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D57" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E57" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18" customHeight="1">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:5" ht="18" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="18" customHeight="1">
-      <c r="A61" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="18" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" ht="18" customHeight="1">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E64" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18" customHeight="1">
-      <c r="A64" s="10" t="s">
+    <row r="65" spans="1:5" ht="18" customHeight="1">
+      <c r="A65" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E65" s="10" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="18" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="18" customHeight="1">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>5</v>
@@ -4835,13 +4836,13 @@
         <v>11</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>5</v>
@@ -4849,252 +4850,252 @@
       <c r="D68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>134</v>
+      <c r="E68" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1">
       <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
+      <c r="B69" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" ht="18" customHeight="1">
+      <c r="A71" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="18" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18" customHeight="1">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18" customHeight="1">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:5" ht="18" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="18" customHeight="1">
-      <c r="A77" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="18" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="18" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" ht="18" customHeight="1">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E80" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18" customHeight="1">
-      <c r="A80" s="10" t="s">
+    <row r="81" spans="1:5" ht="18" customHeight="1">
+      <c r="A81" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B81" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D81" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E81" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-    </row>
     <row r="82" spans="1:5" ht="18" customHeight="1">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" ht="18" customHeight="1">
+      <c r="A83" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B83" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E83" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18" customHeight="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10" t="s">
+    <row r="84" spans="1:5" ht="18" customHeight="1">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E84" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18" customHeight="1">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:5" ht="18" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="18" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" ht="18" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" ht="18" customHeight="1">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" ht="18" customHeight="1">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D91" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E91" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="18" customHeight="1">
-      <c r="A91" s="10" t="s">
+    <row r="92" spans="1:5" ht="18" customHeight="1">
+      <c r="A92" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="18" customHeight="1">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>5</v>
@@ -5103,60 +5104,75 @@
         <v>11</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="18" customHeight="1">
       <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
+      <c r="B93" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="18" customHeight="1">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="1:5" ht="18" customHeight="1">
+      <c r="A95" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D95" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E95" s="10" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="18" customHeight="1">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="18" customHeight="1">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18" customHeight="1">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E97" s="9" t="s">
         <v>144</v>
       </c>
     </row>

--- a/src/main/webapp/word/阅心管理后台接口文档.xlsx
+++ b/src/main/webapp/word/阅心管理后台接口文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="185">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3242,6 +3242,485 @@
   </si>
   <si>
     <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioCategoryPId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioCategoryId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"isFree"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"money"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"二人热风阀"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioNotes"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"司法所范德萨范德萨发"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioImgUrl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"dd.jpg"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vedioUrl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3AB54A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"movie.mp4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"playAmount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>登出路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userSize</t>
+  </si>
+  <si>
+    <t>总用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92278F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"userSize"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF25AAE2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>            </t>
     </r>
     <r>
@@ -3282,436 +3761,6 @@
       </rPr>
       <t>,</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioCategoryPId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioCategoryId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"isFree"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"money"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF1592A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioName"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3AB54A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"二人热风阀"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioNotes"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3AB54A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"司法所范德萨范德萨发"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioImgUrl"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3AB54A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"dd.jpg"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"vedioUrl"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3AB54A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"movie.mp4"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92278F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"playAmount"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF25AAE2"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>登出路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4118,10 +4167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4143,10 +4192,10 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
         <v>180</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
@@ -5174,6 +5223,21 @@
       </c>
       <c r="E97" s="9" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18" customHeight="1">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5367,52 +5431,52 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15">
       <c r="A6" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15">
       <c r="A7" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15">
       <c r="A10" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15">
       <c r="A11" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15">
       <c r="A12" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15">
       <c r="A13" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15">
@@ -5770,10 +5834,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A1:A47 A7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5790,226 +5854,231 @@
     </row>
     <row r="3" spans="1:1" ht="15">
       <c r="A3" s="8" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15">
       <c r="A6" s="8" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15">
       <c r="A7" s="8" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="8" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15">
       <c r="A10" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15">
       <c r="A11" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15">
       <c r="A13" s="8" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15">
       <c r="A14" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15">
       <c r="A15" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15">
       <c r="A16" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15">
       <c r="A17" s="8" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15">
       <c r="A18" s="8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15">
       <c r="A19" s="8" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15">
       <c r="A20" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15">
       <c r="A21" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15">
       <c r="A22" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15">
       <c r="A23" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15">
       <c r="A24" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15">
       <c r="A25" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15">
       <c r="A26" s="8" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15">
       <c r="A27" s="8" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15">
       <c r="A28" s="8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15">
       <c r="A29" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15">
       <c r="A30" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15">
       <c r="A31" s="8" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15">
       <c r="A32" s="8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15">
       <c r="A33" s="8" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15">
       <c r="A34" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15">
       <c r="A35" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15">
       <c r="A36" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15">
       <c r="A37" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15">
       <c r="A38" s="8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15">
       <c r="A39" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15">
       <c r="A40" s="8" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15">
       <c r="A41" s="8" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15">
       <c r="A42" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15">
       <c r="A43" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15">
       <c r="A44" s="8" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15">
       <c r="A45" s="8" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15">
       <c r="A46" s="8" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15">
       <c r="A47" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15">
+      <c r="A48" s="8" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/main/webapp/word/阅心管理后台接口文档.xlsx
+++ b/src/main/webapp/word/阅心管理后台接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="717"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="getVedio示例数据" sheetId="5" r:id="rId4"/>
     <sheet name="getVedios示例数据" sheetId="4" r:id="rId5"/>
     <sheet name="getUsers示例数据" sheetId="6" r:id="rId6"/>
+    <sheet name="getOrders示例数据" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="228">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3761,13 +3763,242 @@
       </rPr>
       <t>,</t>
     </r>
+  </si>
+  <si>
+    <t>订单管理列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/getOrders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veidoName</t>
+  </si>
+  <si>
+    <t>视频名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payStatus</t>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付状态：0-未支付；1-已支付</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "errorCode":10000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "orderSize":2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "orderList":[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "id":1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "orderNo":"23324dd",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "userName":"appuser",</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            "vedioName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>飞越薰衣草花田</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            "money":110,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "addTime":1483687081000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "payStatus":0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "id":2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "orderNo":"ddf333",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "userName":"15123123123",</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            "vedioName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冲上云霄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            "money":50,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "addTime":1483692750000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>示例数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>getOrders</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>示例数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>getUsers</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>示例数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>getVedios</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>示例数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3822,6 +4053,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3858,10 +4104,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3873,9 +4123,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4167,10 +4420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4987,203 +5240,182 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18" customHeight="1">
-      <c r="A77" s="1" t="s">
+    <row r="75" spans="1:5" ht="18" customHeight="1">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" ht="18" customHeight="1">
+      <c r="A76" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="80" spans="1:5" ht="18" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="18" customHeight="1">
-      <c r="A78" s="5" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="18" customHeight="1">
+      <c r="A81" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:5" ht="18" customHeight="1">
-      <c r="A79" s="5" t="s">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" ht="18" customHeight="1">
+      <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B82" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:5" ht="18" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10" t="s">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" ht="18" customHeight="1">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E83" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18" customHeight="1">
-      <c r="A81" s="10" t="s">
+    <row r="84" spans="1:5" ht="18" customHeight="1">
+      <c r="A84" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B84" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D84" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E84" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-    </row>
-    <row r="83" spans="1:5" ht="18" customHeight="1">
-      <c r="A83" s="10" t="s">
+    <row r="85" spans="1:5" ht="18" customHeight="1">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" ht="18" customHeight="1">
+      <c r="A86" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D86" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E86" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10" t="s">
+    <row r="87" spans="1:5" ht="18" customHeight="1">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D87" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E87" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18" customHeight="1">
-      <c r="A88" s="1" t="s">
+    <row r="91" spans="1:5" ht="18" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="18" customHeight="1">
-      <c r="A89" s="5" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="18" customHeight="1">
+      <c r="A92" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" ht="18" customHeight="1">
-      <c r="A90" s="5" t="s">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" ht="18" customHeight="1">
+      <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" ht="18" customHeight="1">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="18" customHeight="1">
-      <c r="A92" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="18" customHeight="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" ht="18" customHeight="1">
       <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
+      <c r="B94" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="18" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>5</v>
@@ -5192,43 +5424,37 @@
         <v>11</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="18" customHeight="1">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18" customHeight="1">
       <c r="A97" s="10"/>
-      <c r="B97" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>144</v>
-      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
     </row>
     <row r="98" spans="1:5" ht="18" customHeight="1">
-      <c r="A98" s="10"/>
+      <c r="A98" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="B98" s="10" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>5</v>
@@ -5237,11 +5463,321 @@
         <v>11</v>
       </c>
       <c r="E98" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="18" customHeight="1">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18" customHeight="1">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18" customHeight="1">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="10" t="s">
         <v>182</v>
       </c>
+    </row>
+    <row r="102" spans="1:5" ht="18" customHeight="1">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="1:5" ht="18" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="107" spans="1:5" ht="18" customHeight="1">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" ht="18" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" ht="18" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="1:5" ht="18" customHeight="1">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="18" customHeight="1">
+      <c r="A111" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="18" customHeight="1">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="18" customHeight="1">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="18" customHeight="1">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18" customHeight="1">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="18" customHeight="1">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="18" customHeight="1">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="18" customHeight="1">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="1:5" ht="18" customHeight="1">
+      <c r="A119" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="18" customHeight="1">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="18" customHeight="1">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="18" customHeight="1">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="18" customHeight="1">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+    </row>
+    <row r="124" spans="1:5" ht="18" customHeight="1">
+      <c r="A124" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B124" location="getOrders示例数据!A1" display="getOrders示例数据!A1"/>
+    <hyperlink ref="B103" location="getUsers示例数据!A1" display="getUsers示例数据!A1"/>
+    <hyperlink ref="B76" location="getVedios示例数据!A1" display="getVedios示例数据"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5509,15 +6045,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="8" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15">
@@ -5836,15 +6370,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A48"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="8" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15">
@@ -6086,4 +6618,151 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>